--- a/static/registration/files/Student Record.xlsx
+++ b/static/registration/files/Student Record.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prahl\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B8459A-4B72-4862-843D-9AF38D39D77C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Student Information" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Student Record</t>
   </si>
@@ -25,181 +34,264 @@
     <t>Serial No</t>
   </si>
   <si>
-    <t>ID/Roll_No</t>
-  </si>
-  <si>
-    <t>Unique ID given to student at time of registration</t>
-  </si>
-  <si>
-    <t>First and Last Name</t>
-  </si>
-  <si>
     <t>Name of the student as in school record</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Student Email address (optional)</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Date of Birth of student</t>
-  </si>
-  <si>
-    <t>Phone No. / Parent Phone No.</t>
-  </si>
-  <si>
-    <t>Student Phone Number (give parent phone no. if not applicable)</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Address of student</t>
-  </si>
-  <si>
-    <t>ID/Roll_No.</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Phone No.</t>
-  </si>
-  <si>
-    <t>Parents Phone No.</t>
+    <t>Admission#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class </t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Subject Teachers</t>
+  </si>
+  <si>
+    <t>Class Roll Number</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Roll#</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Subjects of the academic year</t>
+  </si>
+  <si>
+    <t>Subject teachers of that particular class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission number allocted to a particular student </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Roll #</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Division </t>
+  </si>
+  <si>
+    <t>Class Teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjects </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Ajeet</t>
+  </si>
+  <si>
+    <t>Sana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFA64D79"/>
       <name val="Impact"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0C0C0C"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="2"/>
         <bgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -389,193 +481,302 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.43"/>
-    <col customWidth="1" min="3" max="3" width="19.57"/>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
-    <col customWidth="1" min="5" max="5" width="18.29"/>
-    <col customWidth="1" min="6" max="6" width="14.29"/>
-    <col customWidth="1" min="7" max="7" width="18.14"/>
-    <col customWidth="1" min="8" max="8" width="20.57"/>
-    <col customWidth="1" min="9" max="9" width="21.14"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:29" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="4" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="D15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="22">
         <v>2</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8"/>
+      <c r="C16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="22">
+        <v>2</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="22">
+        <v>2</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A10:C10"/>
+  <mergeCells count="10">
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>